--- a/Vision Canvas.xlsx
+++ b/Vision Canvas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyijing/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA5D4EA-BA45-754B-AD0A-5B93648039DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9644C990-9CD1-C043-9DB8-A5F996BE6263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>High Level Vision Canvas</t>
   </si>
@@ -608,6 +608,10 @@
   </si>
   <si>
     <t>AI &amp; Navigation (NavMesh) for enemy</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>User will feel anxious and excited when fighting with the enemies</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1268,8 +1272,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1758,9 +1762,11 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="22.5" customHeight="1">
+    <row r="16" spans="1:26" ht="33" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
         <v>109</v>
